--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -16,6 +16,266 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="F35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AB35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AC35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AF35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AM35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AP35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AR35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AT35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AY35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BA35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BB35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BC35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BE35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BF35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI35">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F36">
       <text>
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
@@ -1732,6 +1992,1281 @@
       </text>
     </comment>
     <comment authorId="0" ref="BQ161">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="W163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AF163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AJ163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AM163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AP163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AY163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BA163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BB163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BC163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BE163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BJ163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BK163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BM163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ163">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="W191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AC191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AM191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AP191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AR191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AT191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BA191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BB191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BC191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BE191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BH191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BJ191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BK191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BM191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ191">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="W196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AB196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AC196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AJ196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AM196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AR196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AT196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BA196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BB196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BC196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BF196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BH196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BJ196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BK196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BM196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ196">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="W198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AB198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AC198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AF198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AJ198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AM198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AP198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AR198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AT198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AY198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BA198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BB198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BC198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BF198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BH198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ198">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AD208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AP208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AQ208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AU208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BE208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BF208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BH208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BJ208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BK208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BM208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP208">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ208">
       <text>
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
@@ -1741,7 +3276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10689" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="552">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3205,6 +4740,198 @@
   </si>
   <si>
     <t>이선주</t>
+  </si>
+  <si>
+    <t>hms000304@gmail.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>현민수</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@gmail.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>sinyewon12@gamail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>riwon1226@gmail.com</t>
+  </si>
+  <si>
+    <t>김리원</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
   </si>
 </sst>
 </file>
@@ -3525,7 +5252,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ181" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ211" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -10977,7 +12704,7 @@
     </row>
     <row r="35">
       <c r="A35" s="10">
-        <v>45607.667487569444</v>
+        <v>45611.700441203706</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>165</v>
@@ -10992,172 +12719,172 @@
         <v>167</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AF35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AJ35" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BD35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BE35" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BF35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BG35" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BH35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="BI35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BJ35" s="11">
         <v>20.0</v>
@@ -37729,7 +39456,7 @@
     </row>
     <row r="163">
       <c r="A163" s="10">
-        <v>45610.57850974537</v>
+        <v>45610.83674846065</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>449</v>
@@ -37747,10 +39474,10 @@
         <v>76</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I163" s="11" t="s">
         <v>76</v>
@@ -37765,28 +39492,28 @@
         <v>76</v>
       </c>
       <c r="M163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="O163" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P163" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="S163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U163" s="11" t="s">
         <v>76</v>
@@ -37795,19 +39522,19 @@
         <v>72</v>
       </c>
       <c r="W163" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z163" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA163" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB163" s="11" t="s">
         <v>72</v>
@@ -37816,124 +39543,124 @@
         <v>74</v>
       </c>
       <c r="AD163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE163" s="11" t="s">
         <v>75</v>
       </c>
       <c r="AF163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AJ163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="AL163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AM163" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AO163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="AS163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="AU163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX163" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BB163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BD163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BF163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="BG163" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BH163" s="11" t="s">
         <v>72</v>
       </c>
       <c r="BI163" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BJ163" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BK163" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BL163" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BM163" s="11">
         <v>24.0</v>
       </c>
-      <c r="BK163" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="BL163" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="BM163" s="11">
-        <v>20.0</v>
-      </c>
       <c r="BN163" s="11">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="BO163" s="11">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="BP163" s="11">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="BQ163" s="12">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="164">
@@ -41490,212 +43217,6482 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="16">
+      <c r="A181" s="10">
         <v>45610.806499259255</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D181" s="17">
+      <c r="D181" s="11">
         <v>2.0227157E7</v>
       </c>
-      <c r="E181" s="17" t="s">
+      <c r="E181" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="F181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T181" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="U181" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="V181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="W181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB181" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE181" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ181" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA181" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF181" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ181" s="17">
+      <c r="F181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T181" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U181" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB181" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE181" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ181" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ181" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA181" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI181" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ181" s="11">
         <v>15.0</v>
       </c>
-      <c r="BK181" s="17">
+      <c r="BK181" s="11">
         <v>22.0</v>
       </c>
-      <c r="BL181" s="17">
+      <c r="BL181" s="11">
         <v>14.0</v>
       </c>
-      <c r="BM181" s="17">
+      <c r="BM181" s="11">
         <v>20.0</v>
       </c>
-      <c r="BN181" s="17">
+      <c r="BN181" s="11">
         <v>12.0</v>
       </c>
-      <c r="BO181" s="17">
+      <c r="BO181" s="11">
         <v>22.0</v>
       </c>
-      <c r="BP181" s="17">
+      <c r="BP181" s="11">
         <v>24.0</v>
       </c>
-      <c r="BQ181" s="18">
+      <c r="BQ181" s="12">
         <v>14.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="13">
+        <v>45610.82132482639</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D182" s="14">
+        <v>2.019111E7</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J182" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R182" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH182" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC182" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF182" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI182" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ182" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="BK182" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="BL182" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BM182" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BN182" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BO182" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BP182" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BQ182" s="15">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="10">
+        <v>45610.83161415509</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" s="11">
+        <v>2.0203802E7</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M183" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P183" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z183" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI183" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ183" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="BK183" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="BL183" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BM183" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BN183" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BO183" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BP183" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BQ183" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="13">
+        <v>45610.84014021991</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D184" s="14">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z184" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK184" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD184" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF184" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI184" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ184" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="BK184" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BL184" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="BM184" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BN184" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BO184" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BP184" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BQ184" s="15">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="10">
+        <v>45610.84236081019</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D185" s="11">
+        <v>2.0203425E7</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV185" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH185" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ185" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BK185" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BL185" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BM185" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BN185" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BO185" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BP185" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BQ185" s="12">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="13">
+        <v>45610.846127199075</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D186" s="14">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O186" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V186" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y186" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC186" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK186" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX186" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC186" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG186" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH186" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI186" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ186" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BK186" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BL186" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="BM186" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BN186" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BO186" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="BP186" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BQ186" s="15">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="10">
+        <v>45610.88313137731</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D187" s="11">
+        <v>2.0201733E7</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M187" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O187" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA187" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ187" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE187" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI187" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ187" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BK187" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BL187" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BM187" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="BN187" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BO187" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BP187" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BQ187" s="12">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="13">
+        <v>45610.88469184028</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D188" s="14">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW188" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF188" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG188" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH188" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI188" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ188" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BK188" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BL188" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BM188" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BN188" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BO188" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BP188" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BQ188" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="10">
+        <v>45610.901907719905</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="11">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB189" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG189" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI189" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ189" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BK189" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="BL189" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BM189" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BN189" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BO189" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BP189" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BQ189" s="12">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="13">
+        <v>45610.93053489583</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D190" s="14">
+        <v>2.0203321E7</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ190" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC190" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD190" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH190" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI190" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ190" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BK190" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BL190" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM190" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BN190" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BO190" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP190" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BQ190" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="10">
+        <v>45610.96847633102</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D191" s="11">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U191" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE191" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB191" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI191" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ191" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BK191" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BL191" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BM191" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BN191" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BO191" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BP191" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BQ191" s="12">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="13">
+        <v>45610.93265969907</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D192" s="14">
+        <v>2.0213064E7</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA192" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH192" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI192" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO192" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW192" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ192" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH192" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI192" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ192" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BK192" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BL192" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BM192" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BN192" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BO192" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP192" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BQ192" s="15">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="10">
+        <v>45610.93483917824</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="11">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T193" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR193" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ193" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA193" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH193" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI193" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ193" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BK193" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BL193" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BM193" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="BN193" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BO193" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BP193" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ193" s="12">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="13">
+        <v>45610.95178870371</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D194" s="14">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ194" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC194" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG194" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH194" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ194" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BK194" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BL194" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BM194" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BN194" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BO194" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BP194" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BQ194" s="15">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="10">
+        <v>45610.96168143519</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195" s="11">
+        <v>2.0243612E7</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L195" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z195" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE195" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK195" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR195" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS195" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW195" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX195" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE195" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF195" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG195" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ195" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BK195" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BL195" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BM195" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BN195" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BO195" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP195" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ195" s="12">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="13">
+        <v>45611.70179114583</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D196" s="14">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O196" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC196" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI196" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ196" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BK196" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BL196" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BM196" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="BN196" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BO196" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP196" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BQ196" s="15">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="10">
+        <v>45611.0124997338</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197" s="11">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M197" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA197" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE197" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH197" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI197" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ197" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BK197" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL197" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BM197" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN197" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BO197" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP197" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ197" s="12">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="13">
+        <v>45611.40485144676</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D198" s="14">
+        <v>2.0227106E7</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W198" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y198" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z198" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE198" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN198" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX198" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI198" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ198" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BK198" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BL198" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BM198" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BN198" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO198" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BP198" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BQ198" s="15">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="10">
+        <v>45611.139260428245</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" s="11">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD199" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG199" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI199" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ199" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BK199" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BL199" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BM199" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BN199" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO199" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BP199" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BQ199" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="13">
+        <v>45611.41739952547</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D200" s="14">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG200" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH200" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI200" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ200" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BK200" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BL200" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BM200" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BN200" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO200" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BP200" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BQ200" s="15">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="10">
+        <v>45611.501873483794</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D201" s="11">
+        <v>2.0243821E7</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K201" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V201" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG201" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO201" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ201" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX201" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY201" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE201" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ201" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BK201" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BL201" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BM201" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BN201" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BO201" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BP201" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ201" s="12">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="13">
+        <v>45611.58032662037</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D202" s="14">
+        <v>2.0242751E7</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M202" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P202" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY202" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG202" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH202" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI202" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ202" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BK202" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BL202" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BM202" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BN202" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BO202" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="BP202" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BQ202" s="15">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="10">
+        <v>45611.58733710648</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D203" s="11">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ203" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW203" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ203" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF203" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI203" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ203" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="BK203" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BL203" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BM203" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BN203" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BO203" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BP203" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BQ203" s="12">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="13">
+        <v>45611.597561875</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" s="14">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W204" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE204" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS204" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV204" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH204" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI204" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ204" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BK204" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BL204" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BM204" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BN204" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BO204" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP204" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BQ204" s="15">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="10">
+        <v>45611.604165625</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D205" s="11">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L205" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O205" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB205" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD205" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE205" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK205" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV205" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ205" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB205" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD205" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG205" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH205" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI205" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ205" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BK205" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BL205" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BM205" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BN205" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="BO205" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BP205" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BQ205" s="12">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="13">
+        <v>45611.63360667824</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D206" s="14">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N206" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH206" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI206" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL206" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU206" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH206" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI206" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ206" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BK206" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BL206" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BM206" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BN206" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BO206" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BP206" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BQ206" s="15">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="10">
+        <v>45611.63837298611</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D207" s="11">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N207" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O207" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z207" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD207" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU207" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX207" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE207" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH207" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI207" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ207" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BK207" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BL207" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BM207" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BN207" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BO207" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BP207" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BQ207" s="12">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="13">
+        <v>45611.69419400463</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D208" s="14">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G208" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q208" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U208" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ208" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW208" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC208" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD208" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE208" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH208" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI208" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ208" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BK208" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BL208" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM208" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BN208" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO208" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BP208" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BQ208" s="15">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="10">
+        <v>45611.67490412037</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" s="11">
+        <v>2.0243704E7</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD209" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF209" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH209" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI209" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ209" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BK209" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BL209" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BM209" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BN209" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO209" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BP209" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ209" s="12">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="13">
+        <v>45611.68849274305</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D210" s="14">
+        <v>2.0205188E7</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA210" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE210" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG210" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH210" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI210" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ210" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BK210" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BL210" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM210" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BN210" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BO210" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BP210" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BQ210" s="15">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="16">
+        <v>45611.69971421296</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" s="17">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="F211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P211" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ211" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC211" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI211" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ211" s="17">
+        <v>19.0</v>
+      </c>
+      <c r="BK211" s="17">
+        <v>23.0</v>
+      </c>
+      <c r="BL211" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="BM211" s="17">
+        <v>20.0</v>
+      </c>
+      <c r="BN211" s="17">
+        <v>22.0</v>
+      </c>
+      <c r="BO211" s="17">
+        <v>26.0</v>
+      </c>
+      <c r="BP211" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="BQ211" s="18">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -4061,7 +4061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21310" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22490" uniqueCount="903">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6641,6 +6641,135 @@
   </si>
   <si>
     <t>윤시한</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>nyor07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최하은 </t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t>최성돈</t>
   </si>
 </sst>
 </file>
@@ -6961,7 +7090,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ361" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ381" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -9606,7 +9735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13">
-        <v>45607.46981523148</v>
+        <v>45614.40183459491</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>102</v>
@@ -82546,212 +82675,4392 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="16">
+      <c r="A361" s="10">
         <v>45614.032006759255</v>
       </c>
-      <c r="B361" s="17" t="s">
+      <c r="B361" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="C361" s="17" t="s">
+      <c r="C361" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D361" s="17">
+      <c r="D361" s="11">
         <v>2.0246752E7</v>
       </c>
-      <c r="E361" s="17" t="s">
+      <c r="E361" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="F361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N361" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="P361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="V361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="W361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="X361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z361" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM361" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX361" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY361" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF361" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG361" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI361" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ361" s="17">
+      <c r="F361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N361" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z361" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM361" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX361" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY361" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF361" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG361" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI361" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ361" s="11">
         <v>25.0</v>
       </c>
-      <c r="BK361" s="17">
+      <c r="BK361" s="11">
         <v>28.0</v>
       </c>
-      <c r="BL361" s="17">
+      <c r="BL361" s="11">
         <v>26.0</v>
       </c>
-      <c r="BM361" s="17">
+      <c r="BM361" s="11">
         <v>28.0</v>
       </c>
-      <c r="BN361" s="17">
+      <c r="BN361" s="11">
         <v>24.0</v>
       </c>
-      <c r="BO361" s="17">
+      <c r="BO361" s="11">
         <v>28.0</v>
       </c>
-      <c r="BP361" s="17">
+      <c r="BP361" s="11">
         <v>29.0</v>
       </c>
-      <c r="BQ361" s="18">
+      <c r="BQ361" s="12">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="13">
+        <v>45614.08320354167</v>
+      </c>
+      <c r="B362" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D362" s="14">
+        <v>2.0242307E7</v>
+      </c>
+      <c r="E362" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H362" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE362" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF362" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH362" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI362" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ362" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BK362" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="BL362" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BM362" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BN362" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BO362" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BP362" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BQ362" s="15">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="10">
+        <v>45614.187954837966</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D363" s="11">
+        <v>2.0203352E7</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T363" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI363" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM363" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ363" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ363" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC363" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF363" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG363" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI363" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ363" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BK363" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BL363" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BM363" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN363" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BO363" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BP363" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BQ363" s="12">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="13">
+        <v>45614.47367460648</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D364" s="14">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E364" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF364" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG364" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH364" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI364" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ364" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BK364" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BL364" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BM364" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BN364" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BO364" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP364" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BQ364" s="15">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="10">
+        <v>45614.549376828705</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D365" s="11">
+        <v>2.0217087E7</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J365" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM365" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF365" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG365" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI365" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ365" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="BK365" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="BL365" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BM365" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BN365" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BO365" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BP365" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BQ365" s="12">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="13">
+        <v>45614.586878182876</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="C366" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D366" s="14">
+        <v>2.0205176E7</v>
+      </c>
+      <c r="E366" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N366" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z366" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ366" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA366" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG366" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI366" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ366" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BK366" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BL366" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BM366" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BN366" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BO366" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BP366" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BQ366" s="15">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="10">
+        <v>45614.59349103009</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D367" s="11">
+        <v>2.0203513E7</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="F367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M367" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z367" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO367" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT367" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX367" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG367" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH367" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI367" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ367" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BK367" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="BL367" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="BM367" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BN367" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BO367" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BP367" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="BQ367" s="12">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="13">
+        <v>45614.60909907408</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D368" s="14">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E368" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="F368" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y368" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO368" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD368" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH368" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI368" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ368" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BK368" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BL368" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BM368" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BN368" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BO368" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP368" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BQ368" s="15">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="10">
+        <v>45614.63929076389</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D369" s="11">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="F369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I369" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S369" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC369" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR369" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF369" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG369" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH369" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI369" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ369" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="BK369" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BL369" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BM369" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BN369" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BO369" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BP369" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BQ369" s="12">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="13">
+        <v>45614.67138454861</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C370" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D370" s="14">
+        <v>2.0207065E7</v>
+      </c>
+      <c r="E370" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="F370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX370" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD370" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG370" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI370" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ370" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="BK370" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BL370" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BM370" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BN370" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BO370" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BP370" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="BQ370" s="15">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="10">
+        <v>45614.73298747685</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D371" s="11">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M371" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V371" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI371" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ371" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="BK371" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="BL371" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="BM371" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="BN371" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="BO371" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BP371" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BQ371" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="13">
+        <v>45614.75856795139</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="C372" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D372" s="14">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E372" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="F372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN372" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV372" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC372" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG372" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH372" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI372" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ372" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BK372" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BL372" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BM372" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BN372" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BO372" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BP372" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BQ372" s="15">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="10">
+        <v>45614.807993622686</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="D373" s="11">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P373" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM373" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC373" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE373" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF373" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI373" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ373" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="BK373" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BL373" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BM373" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BN373" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BO373" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BP373" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BQ373" s="12">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="13">
+        <v>45614.84126035879</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="C374" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D374" s="14">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E374" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="F374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB374" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD374" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG374" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH374" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI374" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ374" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BK374" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BL374" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BM374" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BN374" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BO374" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="BP374" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BQ374" s="15">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="10">
+        <v>45614.842431770834</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D375" s="11">
+        <v>2.024293E7</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L375" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS375" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE375" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF375" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH375" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI375" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ375" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BK375" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BL375" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BM375" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BN375" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO375" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BP375" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BQ375" s="12">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="13">
+        <v>45614.857175763886</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D376" s="14">
+        <v>2.0227103E7</v>
+      </c>
+      <c r="E376" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="F376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R376" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z376" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD376" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS376" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX376" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY376" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC376" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH376" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ376" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BK376" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="BL376" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BM376" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BN376" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BO376" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="BP376" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="BQ376" s="15">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="10">
+        <v>45614.876233703704</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D377" s="11">
+        <v>2.0227034E7</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="F377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N377" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O377" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ377" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC377" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF377" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH377" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI377" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ377" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BK377" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BL377" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BM377" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BN377" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BO377" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP377" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BQ377" s="12">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="13">
+        <v>45614.91849266204</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="D378" s="14">
+        <v>2.0216526E7</v>
+      </c>
+      <c r="E378" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="F378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G378" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE378" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL378" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU378" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX378" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD378" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF378" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH378" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI378" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ378" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BK378" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BL378" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BM378" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BN378" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BO378" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BP378" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BQ378" s="15">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="10">
+        <v>45615.043872372684</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D379" s="11">
+        <v>2.0246244E7</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="F379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N379" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN379" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW379" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA379" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE379" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF379" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG379" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH379" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI379" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ379" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BK379" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BL379" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BM379" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BN379" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BO379" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BP379" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ379" s="12">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="13">
+        <v>45615.06789851852</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C380" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D380" s="14">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E380" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="F380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N380" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE380" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG380" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH380" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI380" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ380" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BK380" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BL380" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BM380" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BN380" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BO380" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BP380" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BQ380" s="15">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="16">
+        <v>45615.141983333335</v>
+      </c>
+      <c r="B381" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D381" s="17">
+        <v>2.0201103E7</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="F381" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P381" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U381" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W381" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY381" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD381" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE381" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF381" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ381" s="17">
+        <v>19.0</v>
+      </c>
+      <c r="BK381" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="BL381" s="17">
+        <v>23.0</v>
+      </c>
+      <c r="BM381" s="17">
+        <v>18.0</v>
+      </c>
+      <c r="BN381" s="17">
+        <v>27.0</v>
+      </c>
+      <c r="BO381" s="17">
+        <v>26.0</v>
+      </c>
+      <c r="BP381" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="BQ381" s="18">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -4061,7 +4061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22490" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23139" uniqueCount="925">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6770,6 +6770,72 @@
   </si>
   <si>
     <t>최성돈</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스학부</t>
+  </si>
+  <si>
+    <t>김 재희</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
   </si>
 </sst>
 </file>
@@ -6933,10 +6999,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -6944,13 +7010,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -6958,13 +7024,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7090,7 +7156,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ381" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ392" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -86855,212 +86921,2511 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="16">
+      <c r="A381" s="10">
         <v>45615.141983333335</v>
       </c>
-      <c r="B381" s="17" t="s">
+      <c r="B381" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="C381" s="17" t="s">
+      <c r="C381" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D381" s="17">
+      <c r="D381" s="11">
         <v>2.0201103E7</v>
       </c>
-      <c r="E381" s="17" t="s">
+      <c r="E381" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="F381" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P381" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="S381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U381" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="V381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="W381" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="X381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY381" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD381" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE381" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF381" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI381" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ381" s="17">
+      <c r="F381" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P381" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U381" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W381" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY381" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD381" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE381" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF381" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI381" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ381" s="11">
         <v>19.0</v>
       </c>
-      <c r="BK381" s="17">
+      <c r="BK381" s="11">
         <v>17.0</v>
       </c>
-      <c r="BL381" s="17">
+      <c r="BL381" s="11">
         <v>23.0</v>
       </c>
-      <c r="BM381" s="17">
+      <c r="BM381" s="11">
         <v>18.0</v>
       </c>
-      <c r="BN381" s="17">
+      <c r="BN381" s="11">
         <v>27.0</v>
       </c>
-      <c r="BO381" s="17">
+      <c r="BO381" s="11">
         <v>26.0</v>
       </c>
-      <c r="BP381" s="17">
+      <c r="BP381" s="11">
         <v>24.0</v>
       </c>
-      <c r="BQ381" s="18">
+      <c r="BQ381" s="12">
         <v>18.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="13">
+        <v>45615.459147534726</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="C382" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D382" s="14">
+        <v>2.0243063E7</v>
+      </c>
+      <c r="E382" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="F382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG382" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH382" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI382" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ382" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BK382" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BL382" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BM382" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BN382" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO382" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BP382" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BQ382" s="15">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="10">
+        <v>45615.54127311343</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D383" s="11">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="F383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K383" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T383" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN383" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ383" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD383" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH383" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI383" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ383" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BK383" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="BL383" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BM383" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="BN383" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BO383" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BP383" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BQ383" s="12">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="13">
+        <v>45615.589646238426</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="C384" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D384" s="14">
+        <v>2.0215115E7</v>
+      </c>
+      <c r="E384" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="F384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z384" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF384" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH384" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI384" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ384" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BK384" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BL384" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BM384" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BN384" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO384" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BP384" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BQ384" s="15">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="10">
+        <v>45615.60475471064</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D385" s="11">
+        <v>2.0201007E7</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="F385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P385" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD385" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO385" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA385" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB385" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC385" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG385" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH385" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI385" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ385" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="BK385" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BL385" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BM385" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BN385" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BO385" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BP385" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BQ385" s="12">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="13">
+        <v>45615.69942079861</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D386" s="14">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E386" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="F386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R386" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U386" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y386" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA386" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN386" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ386" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC386" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH386" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI386" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ386" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="BK386" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BL386" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BM386" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BN386" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO386" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BP386" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BQ386" s="15">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="10">
+        <v>45615.71990427084</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D387" s="11">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC387" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG387" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH387" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI387" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ387" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BK387" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="BL387" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BM387" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BN387" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BO387" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BP387" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BQ387" s="12">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="13">
+        <v>45615.752017743056</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="14">
+        <v>2.0242725E7</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA388" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV388" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE388" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH388" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI388" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ388" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BK388" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BL388" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BM388" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BN388" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BO388" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP388" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BQ388" s="15">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="10">
+        <v>45615.76482541667</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="D389" s="11">
+        <v>2.0243216E7</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="F389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M389" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V389" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL389" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA389" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH389" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI389" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ389" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BK389" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BL389" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BM389" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN389" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BO389" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BP389" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BQ389" s="12">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="13">
+        <v>45615.794501944445</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D390" s="14">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E390" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN390" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ390" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF390" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH390" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI390" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ390" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="BK390" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BL390" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM390" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BN390" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BO390" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BP390" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BQ390" s="15">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="10">
+        <v>45615.80414766204</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D391" s="11">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="F391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC391" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE391" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF391" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH391" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI391" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ391" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="BK391" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BL391" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BM391" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BN391" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BO391" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP391" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BQ391" s="12">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="16">
+        <v>45615.84242461805</v>
+      </c>
+      <c r="B392" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D392" s="17">
+        <v>2.0242565E7</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="F392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z392" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM392" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO392" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY392" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD392" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI392" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ392" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="BK392" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="BL392" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="BM392" s="17">
+        <v>26.0</v>
+      </c>
+      <c r="BN392" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="BO392" s="17">
+        <v>20.0</v>
+      </c>
+      <c r="BP392" s="17">
+        <v>14.0</v>
+      </c>
+      <c r="BQ392" s="18">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -4061,7 +4061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23139" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24024" uniqueCount="957">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6836,6 +6836,102 @@
   </si>
   <si>
     <t>이혜원</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>jseunghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>happyfish123@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
   </si>
 </sst>
 </file>
@@ -6999,10 +7095,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7010,13 +7106,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7024,13 +7120,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7156,7 +7252,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ392" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ407" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -89220,212 +89316,3347 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="16">
+      <c r="A392" s="13">
         <v>45615.84242461805</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B392" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="C392" s="17" t="s">
+      <c r="C392" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D392" s="17">
+      <c r="D392" s="14">
         <v>2.0242565E7</v>
       </c>
-      <c r="E392" s="17" t="s">
+      <c r="E392" s="14" t="s">
         <v>924</v>
       </c>
-      <c r="F392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="V392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="W392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="X392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z392" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM392" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO392" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY392" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD392" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE392" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI392" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ392" s="17">
+      <c r="F392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z392" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM392" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO392" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY392" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD392" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE392" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI392" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ392" s="14">
         <v>24.0</v>
       </c>
-      <c r="BK392" s="17">
+      <c r="BK392" s="14">
         <v>15.0</v>
       </c>
-      <c r="BL392" s="17">
+      <c r="BL392" s="14">
         <v>17.0</v>
       </c>
-      <c r="BM392" s="17">
+      <c r="BM392" s="14">
         <v>26.0</v>
       </c>
-      <c r="BN392" s="17">
+      <c r="BN392" s="14">
         <v>16.0</v>
       </c>
-      <c r="BO392" s="17">
+      <c r="BO392" s="14">
         <v>20.0</v>
       </c>
-      <c r="BP392" s="17">
+      <c r="BP392" s="14">
         <v>14.0</v>
       </c>
-      <c r="BQ392" s="18">
+      <c r="BQ392" s="15">
         <v>8.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="10">
+        <v>45615.89068405093</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D393" s="11">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="F393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T393" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB393" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU393" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB393" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG393" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH393" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI393" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ393" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BK393" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL393" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BM393" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="BN393" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BO393" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BP393" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BQ393" s="12">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="13">
+        <v>45615.924129444444</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D394" s="14">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E394" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="F394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX394" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG394" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI394" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ394" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BK394" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BL394" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BM394" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BN394" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BO394" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP394" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BQ394" s="15">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="10">
+        <v>45615.965644525466</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D395" s="11">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="F395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV395" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC395" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG395" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH395" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI395" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ395" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BK395" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="BL395" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BM395" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN395" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BO395" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BP395" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BQ395" s="12">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="13">
+        <v>45616.053979027776</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="C396" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D396" s="14">
+        <v>2.0243609E7</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY396" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE396" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG396" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH396" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI396" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ396" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BK396" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BL396" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BM396" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BN396" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BO396" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BP396" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BQ396" s="15">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="10">
+        <v>45616.439037881944</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D397" s="11">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="F397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO397" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC397" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD397" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH397" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI397" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ397" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BK397" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL397" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BM397" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BN397" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BO397" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BP397" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ397" s="12">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="13">
+        <v>45616.5157640625</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D398" s="14">
+        <v>2.0241234E7</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="F398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU398" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD398" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH398" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI398" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ398" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BK398" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BL398" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="BM398" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BN398" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="BO398" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="BP398" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BQ398" s="15">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="10">
+        <v>45616.596946122685</v>
+      </c>
+      <c r="B399" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D399" s="11">
+        <v>2.0243031E7</v>
+      </c>
+      <c r="E399" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="F399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I399" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO399" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD399" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE399" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH399" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI399" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ399" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="BK399" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL399" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BM399" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BN399" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BO399" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BP399" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BQ399" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="13">
+        <v>45616.71287773148</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="C400" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D400" s="14">
+        <v>2.0213644E7</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J400" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N400" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R400" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD400" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF400" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH400" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI400" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ400" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BK400" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BL400" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BM400" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BN400" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BO400" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BP400" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BQ400" s="15">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="10">
+        <v>45616.72483112269</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="D401" s="11">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P401" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V401" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI401" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM401" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE401" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF401" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG401" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH401" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI401" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ401" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BK401" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BL401" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BM401" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN401" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BO401" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP401" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ401" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="13">
+        <v>45616.77393146991</v>
+      </c>
+      <c r="B402" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="C402" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D402" s="14">
+        <v>2.0242919E7</v>
+      </c>
+      <c r="E402" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC402" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI402" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ402" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BK402" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BL402" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BM402" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BN402" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BO402" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BP402" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BQ402" s="15">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="10">
+        <v>45616.84225332176</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D403" s="11">
+        <v>2.0226638E7</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P403" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V403" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG403" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU403" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY403" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF403" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH403" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI403" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ403" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BK403" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BL403" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BM403" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BN403" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BO403" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BP403" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BQ403" s="12">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="13">
+        <v>45616.85120479167</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="C404" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D404" s="14">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E404" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T404" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI404" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ404" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC404" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF404" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI404" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ404" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BK404" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="BL404" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="BM404" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="BN404" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="BO404" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP404" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BQ404" s="15">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="10">
+        <v>45616.85470271991</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D405" s="11">
+        <v>2.0202761E7</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U405" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ405" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC405" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD405" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG405" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI405" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ405" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BK405" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BL405" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BM405" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN405" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BO405" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BP405" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BQ405" s="12">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="13">
+        <v>45616.8599884375</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="C406" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D406" s="14">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I406" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z406" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA406" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH406" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO406" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV406" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX406" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC406" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG406" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH406" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI406" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ406" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BK406" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BL406" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BM406" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BN406" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BO406" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BP406" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BQ406" s="15">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="16">
+        <v>45616.86873642361</v>
+      </c>
+      <c r="B407" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D407" s="17">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E407" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F407" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ407" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY407" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB407" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH407" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI407" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ407" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="BK407" s="17">
+        <v>14.0</v>
+      </c>
+      <c r="BL407" s="17">
+        <v>13.0</v>
+      </c>
+      <c r="BM407" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="BN407" s="17">
+        <v>25.0</v>
+      </c>
+      <c r="BO407" s="17">
+        <v>23.0</v>
+      </c>
+      <c r="BP407" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="BQ407" s="18">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -4061,7 +4061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24024" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24378" uniqueCount="971">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6932,6 +6932,48 @@
   </si>
   <si>
     <t>이가현</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>비이오메디컬</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>hwo0933@gmail.com</t>
+  </si>
+  <si>
+    <t>융합관광경영전공</t>
+  </si>
+  <si>
+    <t>양현우</t>
   </si>
 </sst>
 </file>
@@ -7252,7 +7294,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ407" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ413" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -92451,212 +92493,1466 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="16">
+      <c r="A407" s="10">
         <v>45616.86873642361</v>
       </c>
-      <c r="B407" s="17" t="s">
+      <c r="B407" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="C407" s="17" t="s">
+      <c r="C407" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D407" s="17">
+      <c r="D407" s="11">
         <v>2.0231621E7</v>
       </c>
-      <c r="E407" s="17" t="s">
+      <c r="E407" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="F407" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="S407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="T407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="V407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="W407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="X407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ407" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY407" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB407" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG407" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH407" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI407" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ407" s="17">
+      <c r="F407" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ407" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY407" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB407" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG407" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH407" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI407" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ407" s="11">
         <v>21.0</v>
       </c>
-      <c r="BK407" s="17">
+      <c r="BK407" s="11">
         <v>14.0</v>
       </c>
-      <c r="BL407" s="17">
+      <c r="BL407" s="11">
         <v>13.0</v>
       </c>
-      <c r="BM407" s="17">
+      <c r="BM407" s="11">
         <v>15.0</v>
       </c>
-      <c r="BN407" s="17">
+      <c r="BN407" s="11">
         <v>25.0</v>
       </c>
-      <c r="BO407" s="17">
+      <c r="BO407" s="11">
         <v>23.0</v>
       </c>
-      <c r="BP407" s="17">
+      <c r="BP407" s="11">
         <v>15.0</v>
       </c>
-      <c r="BQ407" s="18">
+      <c r="BQ407" s="12">
         <v>13.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="13">
+        <v>45616.88388381945</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D408" s="14">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E408" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW408" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX408" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH408" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI408" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ408" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BK408" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BL408" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BM408" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BN408" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BO408" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BP408" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BQ408" s="15">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="10">
+        <v>45616.88726452546</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D409" s="11">
+        <v>2.0212549E7</v>
+      </c>
+      <c r="E409" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="F409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI409" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ409" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BK409" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BL409" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BM409" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BN409" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO409" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BP409" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ409" s="12">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="13">
+        <v>45616.89143945602</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D410" s="14">
+        <v>2.0227155E7</v>
+      </c>
+      <c r="E410" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T410" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE410" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG410" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH410" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI410" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ410" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="BK410" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="BL410" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="BM410" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BN410" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BO410" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BP410" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BQ410" s="15">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="10">
+        <v>45616.89242697917</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D411" s="11">
+        <v>2.0243605E7</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="F411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S411" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB411" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD411" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB411" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH411" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI411" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ411" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="BK411" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BL411" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BM411" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN411" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BO411" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BP411" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="BQ411" s="12">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="13">
+        <v>45616.922821319444</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D412" s="14">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z412" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ412" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC412" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG412" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH412" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI412" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ412" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BK412" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BL412" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BM412" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BN412" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BO412" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP412" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BQ412" s="15">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="16">
+        <v>45616.98942442129</v>
+      </c>
+      <c r="B413" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="C413" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="D413" s="17">
+        <v>2.0236627E7</v>
+      </c>
+      <c r="E413" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="F413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O413" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA413" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC413" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK413" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD413" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE413" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH413" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI413" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ413" s="17">
+        <v>13.0</v>
+      </c>
+      <c r="BK413" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="BL413" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="BM413" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="BN413" s="17">
+        <v>11.0</v>
+      </c>
+      <c r="BO413" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="BP413" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="BQ413" s="18">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111_tmp.xlsx
+++ b/R/data/MI241111_tmp.xlsx
@@ -4056,12 +4056,272 @@
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="F402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="W402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="X402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Y402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AA402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AC402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AE402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AF402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AG402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AI402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AJ402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AK402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AL402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AN402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AO402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AR402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AS402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AT402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AV402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AX402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AZ402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BD402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BE402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BF402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BG402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BH402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BI402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BJ402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BK402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BL402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BM402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BN402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BO402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BP402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="BQ402">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24378" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25735" uniqueCount="1021">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6898,7 +7158,7 @@
     <t>이강준</t>
   </si>
   <si>
-    <t>happyfish123@naver.com</t>
+    <t>happyrovot88@gmail.com</t>
   </si>
   <si>
     <t>김도연</t>
@@ -6974,6 +7234,156 @@
   </si>
   <si>
     <t>양현우</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>youu0729@naver.com</t>
+  </si>
+  <si>
+    <t>유이현</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘탠츠</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>hyeonyonga@naver.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털 미디어 콘텐츠</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>sky0219msh@gmail.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
   </si>
 </sst>
 </file>
@@ -7137,10 +7547,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7148,13 +7558,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7162,13 +7572,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -7294,7 +7704,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ413" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BQ436" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="69">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -91449,7 +91859,7 @@
     </row>
     <row r="402">
       <c r="A402" s="13">
-        <v>45616.77393146991</v>
+        <v>45618.54200811342</v>
       </c>
       <c r="B402" s="14" t="s">
         <v>945</v>
@@ -91464,112 +91874,112 @@
         <v>946</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M402" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P402" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="R402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="T402" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X402" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z402" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AC402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AE402" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF402" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AM402" s="14" t="s">
         <v>72</v>
       </c>
       <c r="AN402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AO402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP402" s="14" t="s">
         <v>72</v>
@@ -91578,31 +91988,31 @@
         <v>72</v>
       </c>
       <c r="AR402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS402" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AT402" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AV402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AW402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AX402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AY402" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AZ402" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BA402" s="14" t="s">
         <v>76</v>
@@ -91614,46 +92024,46 @@
         <v>76</v>
       </c>
       <c r="BD402" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BE402" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BF402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BG402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BH402" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BI402" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BJ402" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BK402" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BL402" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM402" s="14">
         <v>27.0</v>
       </c>
-      <c r="BK402" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="BL402" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="BM402" s="14">
-        <v>26.0</v>
-      </c>
       <c r="BN402" s="14">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO402" s="14">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="BP402" s="14">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="BQ402" s="15">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="403">
@@ -93747,212 +94157,5019 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="16">
+      <c r="A413" s="10">
         <v>45616.98942442129</v>
       </c>
-      <c r="B413" s="17" t="s">
+      <c r="B413" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="C413" s="17" t="s">
+      <c r="C413" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="D413" s="17">
+      <c r="D413" s="11">
         <v>2.0236627E7</v>
       </c>
-      <c r="E413" s="17" t="s">
+      <c r="E413" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="F413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O413" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="V413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="W413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA413" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC413" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK413" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD413" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE413" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH413" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI413" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ413" s="17">
+      <c r="F413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O413" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA413" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC413" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK413" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD413" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE413" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH413" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI413" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ413" s="11">
         <v>13.0</v>
       </c>
-      <c r="BK413" s="17">
+      <c r="BK413" s="11">
         <v>21.0</v>
       </c>
-      <c r="BL413" s="17">
+      <c r="BL413" s="11">
         <v>17.0</v>
       </c>
-      <c r="BM413" s="17">
+      <c r="BM413" s="11">
         <v>16.0</v>
       </c>
-      <c r="BN413" s="17">
+      <c r="BN413" s="11">
         <v>11.0</v>
       </c>
-      <c r="BO413" s="17">
+      <c r="BO413" s="11">
         <v>24.0</v>
       </c>
-      <c r="BP413" s="17">
+      <c r="BP413" s="11">
         <v>21.0</v>
       </c>
-      <c r="BQ413" s="18">
+      <c r="BQ413" s="12">
         <v>22.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="13">
+        <v>45617.48489443287</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C414" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D414" s="14">
+        <v>2.0243414E7</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z414" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ414" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX414" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA414" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI414" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ414" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BK414" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BL414" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BM414" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BN414" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BO414" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="BP414" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BQ414" s="15">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="10">
+        <v>45617.50253760417</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D415" s="11">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="F415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N415" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T415" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE415" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH415" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM415" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH415" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI415" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ415" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BK415" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BL415" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BM415" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BN415" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO415" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="BP415" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BQ415" s="12">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="13">
+        <v>45617.52258767361</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="C416" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D416" s="14">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S416" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT416" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU416" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF416" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG416" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH416" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI416" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ416" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BK416" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BL416" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BM416" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BN416" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BO416" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BP416" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="BQ416" s="15">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="10">
+        <v>45617.53738465278</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="D417" s="11">
+        <v>2.0231033E7</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="F417" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z417" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC417" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA417" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB417" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH417" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI417" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ417" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BK417" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BL417" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BM417" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BN417" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO417" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BP417" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ417" s="12">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="13">
+        <v>45617.608989872686</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C418" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D418" s="14">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="F418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS418" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT418" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD418" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH418" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI418" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ418" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BK418" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="BL418" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BM418" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="BN418" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BO418" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BP418" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BQ418" s="15">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="10">
+        <v>45617.68263252315</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D419" s="11">
+        <v>2.0244152E7</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="F419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z419" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG419" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH419" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI419" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ419" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BK419" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BL419" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BM419" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BN419" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BO419" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BP419" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BQ419" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="13">
+        <v>45617.803862395835</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="C420" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D420" s="14">
+        <v>2.0242335E7</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="F420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I420" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L420" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O420" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM420" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY420" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG420" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH420" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI420" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ420" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BK420" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BL420" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BM420" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BN420" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="BO420" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BP420" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BQ420" s="15">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="10">
+        <v>45617.869656863426</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="C421" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D421" s="11">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="F421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH421" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI421" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ421" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BK421" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BL421" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="BM421" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BN421" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO421" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BP421" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ421" s="12">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="13">
+        <v>45617.883227557875</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="C422" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D422" s="14">
+        <v>2.0242575E7</v>
+      </c>
+      <c r="E422" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="F422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M422" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P422" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA422" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB422" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH422" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI422" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ422" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BK422" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="BL422" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BM422" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BN422" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BO422" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="BP422" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BQ422" s="15">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="10">
+        <v>45617.88823774306</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="C423" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D423" s="11">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P423" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC423" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE423" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF423" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG423" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ423" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BK423" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BL423" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BM423" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="BN423" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BO423" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BP423" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BQ423" s="12">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="13">
+        <v>45617.94539502315</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="C424" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D424" s="14">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="F424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ424" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF424" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG424" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH424" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI424" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ424" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BK424" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BL424" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BM424" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="BN424" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BO424" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="BP424" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="BQ424" s="15">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="10">
+        <v>45617.96066978009</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="C425" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D425" s="11">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G425" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O425" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI425" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ425" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR425" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX425" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE425" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI425" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ425" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BK425" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BL425" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BM425" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="BN425" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BO425" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="BP425" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BQ425" s="12">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="13">
+        <v>45618.029637893516</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="C426" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D426" s="14">
+        <v>2.0242625E7</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="F426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R426" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU426" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE426" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH426" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI426" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ426" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="BK426" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BL426" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BM426" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BN426" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BO426" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="BP426" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BQ426" s="15">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="10">
+        <v>45618.478732013886</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C427" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="D427" s="11">
+        <v>2.0227039E7</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K427" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L427" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M427" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P427" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR427" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS427" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW427" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF427" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI427" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ427" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BK427" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="BL427" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BM427" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BN427" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="BO427" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BP427" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ427" s="12">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="13">
+        <v>45618.48483585648</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C428" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D428" s="14">
+        <v>2.0243415E7</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M428" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC428" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR428" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU428" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX428" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC428" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE428" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG428" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI428" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ428" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BK428" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BL428" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BM428" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BN428" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="BO428" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="BP428" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BQ428" s="15">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="10">
+        <v>45618.49668244213</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D429" s="11">
+        <v>2.0193017E7</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O429" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T429" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY429" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE429" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG429" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH429" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI429" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ429" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BK429" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL429" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BM429" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BN429" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BO429" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BP429" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BQ429" s="12">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="13">
+        <v>45618.51758289352</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D430" s="14">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC430" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI430" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ430" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="BK430" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="BL430" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="BM430" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="BN430" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="BO430" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="BP430" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="BQ430" s="15">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="10">
+        <v>45618.56391329861</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D431" s="11">
+        <v>2.0246927E7</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW431" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB431" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH431" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI431" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ431" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="BK431" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BL431" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BM431" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="BN431" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="BO431" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="BP431" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="BQ431" s="12">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="13">
+        <v>45618.565701631946</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C432" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D432" s="14">
+        <v>2.024694E7</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M432" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS432" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB432" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC432" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF432" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH432" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI432" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ432" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="BK432" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="BL432" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="BM432" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="BN432" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="BO432" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BP432" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BQ432" s="15">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="10">
+        <v>45618.60390606482</v>
+      </c>
+      <c r="B433" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C433" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D433" s="11">
+        <v>2.0246225E7</v>
+      </c>
+      <c r="E433" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H433" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M433" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U433" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX433" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC433" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG433" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH433" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI433" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ433" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="BK433" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BL433" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BM433" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="BN433" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="BO433" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BP433" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="BQ433" s="12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="13">
+        <v>45618.61049295139</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C434" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D434" s="14">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC434" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD434" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG434" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH434" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI434" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ434" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="BK434" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="BL434" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BM434" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="BN434" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="BO434" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="BP434" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="BQ434" s="15">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="10">
+        <v>45618.62141325232</v>
+      </c>
+      <c r="B435" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C435" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D435" s="11">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z435" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL435" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM435" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO435" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI435" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ435" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="BK435" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="BL435" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="BM435" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="BN435" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BO435" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BP435" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="BQ435" s="12">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="16">
+        <v>45618.64524175926</v>
+      </c>
+      <c r="B436" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C436" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D436" s="17">
+        <v>2.0203702E7</v>
+      </c>
+      <c r="E436" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O436" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z436" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK436" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO436" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS436" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC436" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH436" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI436" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ436" s="17">
+        <v>25.0</v>
+      </c>
+      <c r="BK436" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="BL436" s="17">
+        <v>22.0</v>
+      </c>
+      <c r="BM436" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="BN436" s="17">
+        <v>19.0</v>
+      </c>
+      <c r="BO436" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="BP436" s="17">
+        <v>25.0</v>
+      </c>
+      <c r="BQ436" s="18">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
